--- a/crazys-wm-mod/Docs&Tools/Jobs.xlsx
+++ b/crazys-wm-mod/Docs&Tools/Jobs.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Job Overview'!$A$1:$L$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Job Overview'!$A$1:$L$114</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$J$113</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -169,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E93" authorId="0">
+    <comment ref="E94" authorId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L93" authorId="0">
+    <comment ref="L94" authorId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="391">
   <si>
     <t>Job</t>
   </si>
@@ -1386,6 +1386,15 @@
   </si>
   <si>
     <t>JP Max without traits</t>
+  </si>
+  <si>
+    <t>WorkJeweler</t>
+  </si>
+  <si>
+    <t>JP_Jeweler</t>
+  </si>
+  <si>
+    <t>JEWELER</t>
   </si>
 </sst>
 </file>
@@ -1776,10 +1785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3266,7 +3275,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>390</v>
       </c>
       <c r="C58" t="s">
         <v>45</v>
@@ -3275,16 +3284,13 @@
         <v>54</v>
       </c>
       <c r="E58" t="s">
-        <v>233</v>
+        <v>298</v>
       </c>
       <c r="F58" t="s">
-        <v>25</v>
+        <v>388</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="L58" t="s">
-        <v>286</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3292,31 +3298,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D59" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="E59" t="s">
+        <v>233</v>
       </c>
       <c r="F59" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H59" s="4">
-        <v>0</v>
-      </c>
-      <c r="I59" s="4">
-        <v>0</v>
-      </c>
-      <c r="J59" s="4">
-        <v>0</v>
-      </c>
-      <c r="K59" s="4">
-        <v>0</v>
+        <v>293</v>
+      </c>
+      <c r="L59" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3324,7 +3324,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s">
         <v>47</v>
@@ -3332,14 +3332,23 @@
       <c r="D60" t="s">
         <v>50</v>
       </c>
-      <c r="E60" t="s">
-        <v>236</v>
-      </c>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>299</v>
+        <v>184</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0</v>
+      </c>
+      <c r="J60" s="4">
+        <v>0</v>
+      </c>
+      <c r="K60" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3347,7 +3356,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C61" t="s">
         <v>47</v>
@@ -3356,13 +3365,13 @@
         <v>50</v>
       </c>
       <c r="E61" t="s">
-        <v>304</v>
+        <v>236</v>
       </c>
       <c r="F61" t="s">
-        <v>301</v>
+        <v>22</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3370,7 +3379,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C62" t="s">
         <v>47</v>
@@ -3382,10 +3391,10 @@
         <v>304</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>301</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3393,7 +3402,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C63" t="s">
         <v>47</v>
@@ -3402,16 +3411,13 @@
         <v>50</v>
       </c>
       <c r="E63" t="s">
-        <v>233</v>
+        <v>304</v>
       </c>
       <c r="F63" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="L63" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3419,22 +3425,25 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s">
         <v>47</v>
       </c>
       <c r="D64" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="E64" t="s">
-        <v>311</v>
+        <v>233</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
+      </c>
+      <c r="L64" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3442,7 +3451,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C65" t="s">
         <v>47</v>
@@ -3451,25 +3460,21 @@
         <v>178</v>
       </c>
       <c r="E65" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F65" t="s">
-        <v>306</v>
+        <v>32</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="J65"/>
-      <c r="K65"/>
+        <v>305</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C66" t="s">
         <v>47</v>
@@ -3478,13 +3483,13 @@
         <v>178</v>
       </c>
       <c r="E66" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
+        <v>306</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H66"/>
       <c r="I66"/>
@@ -3496,7 +3501,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C67" t="s">
         <v>47</v>
@@ -3508,10 +3513,10 @@
         <v>313</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H67"/>
       <c r="I67"/>
@@ -3523,7 +3528,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C68" t="s">
         <v>47</v>
@@ -3535,10 +3540,10 @@
         <v>313</v>
       </c>
       <c r="F68" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H68"/>
       <c r="I68"/>
@@ -3550,19 +3555,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D69" t="s">
-        <v>56</v>
+        <v>178</v>
+      </c>
+      <c r="E69" t="s">
+        <v>313</v>
       </c>
       <c r="F69" t="s">
-        <v>314</v>
+        <v>59</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="H69"/>
       <c r="I69"/>
@@ -3574,7 +3582,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C70" t="s">
         <v>55</v>
@@ -3583,10 +3591,10 @@
         <v>56</v>
       </c>
       <c r="F70" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
@@ -3598,7 +3606,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C71" t="s">
         <v>55</v>
@@ -3606,14 +3614,11 @@
       <c r="D71" t="s">
         <v>56</v>
       </c>
-      <c r="E71" t="s">
-        <v>336</v>
-      </c>
       <c r="F71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H71"/>
       <c r="I71"/>
@@ -3625,7 +3630,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C72" t="s">
         <v>55</v>
@@ -3633,11 +3638,14 @@
       <c r="D72" t="s">
         <v>56</v>
       </c>
+      <c r="E72" t="s">
+        <v>336</v>
+      </c>
       <c r="F72" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H72"/>
       <c r="I72"/>
@@ -3649,7 +3657,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C73" t="s">
         <v>55</v>
@@ -3658,10 +3666,10 @@
         <v>56</v>
       </c>
       <c r="F73" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
@@ -3673,7 +3681,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C74" t="s">
         <v>55</v>
@@ -3682,10 +3690,10 @@
         <v>56</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>317</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H74"/>
       <c r="I74"/>
@@ -3697,7 +3705,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C75" t="s">
         <v>55</v>
@@ -3706,10 +3714,10 @@
         <v>56</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
@@ -3721,7 +3729,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C76" t="s">
         <v>55</v>
@@ -3730,10 +3738,10 @@
         <v>56</v>
       </c>
       <c r="F76" t="s">
-        <v>319</v>
+        <v>12</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H76"/>
       <c r="I76"/>
@@ -3745,7 +3753,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C77" t="s">
         <v>55</v>
@@ -3754,10 +3762,10 @@
         <v>56</v>
       </c>
       <c r="F77" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
@@ -3769,7 +3777,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C78" t="s">
         <v>55</v>
@@ -3778,10 +3786,10 @@
         <v>56</v>
       </c>
       <c r="F78" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
@@ -3793,7 +3801,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C79" t="s">
         <v>55</v>
@@ -3802,10 +3810,10 @@
         <v>56</v>
       </c>
       <c r="F79" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
@@ -3817,7 +3825,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C80" t="s">
         <v>55</v>
@@ -3826,10 +3834,10 @@
         <v>56</v>
       </c>
       <c r="F80" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H80"/>
       <c r="I80"/>
@@ -3841,39 +3849,31 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C81" t="s">
         <v>55</v>
       </c>
       <c r="D81" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F81" t="s">
-        <v>182</v>
+        <v>323</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H81" s="4">
-        <v>0</v>
-      </c>
-      <c r="I81" s="4">
-        <v>0</v>
-      </c>
-      <c r="J81" s="4">
-        <v>0</v>
-      </c>
-      <c r="K81" s="4">
-        <v>0</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C82" t="s">
         <v>55</v>
@@ -3881,26 +3881,31 @@
       <c r="D82" t="s">
         <v>54</v>
       </c>
-      <c r="E82" t="s">
-        <v>236</v>
-      </c>
       <c r="F82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" t="s">
-        <v>341</v>
-      </c>
-      <c r="H82"/>
-      <c r="I82"/>
-      <c r="J82"/>
-      <c r="K82"/>
+        <v>182</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H82" s="4">
+        <v>0</v>
+      </c>
+      <c r="I82" s="4">
+        <v>0</v>
+      </c>
+      <c r="J82" s="4">
+        <v>0</v>
+      </c>
+      <c r="K82" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C83" t="s">
         <v>55</v>
@@ -3909,13 +3914,13 @@
         <v>54</v>
       </c>
       <c r="E83" t="s">
-        <v>350</v>
+        <v>236</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G83" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H83"/>
       <c r="I83"/>
@@ -3927,7 +3932,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C84" t="s">
         <v>55</v>
@@ -3936,13 +3941,13 @@
         <v>54</v>
       </c>
       <c r="E84" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F84" t="s">
-        <v>337</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H84"/>
       <c r="I84"/>
@@ -3954,7 +3959,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C85" t="s">
         <v>55</v>
@@ -3963,13 +3968,13 @@
         <v>54</v>
       </c>
       <c r="E85" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F85" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G85" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H85"/>
       <c r="I85"/>
@@ -3981,7 +3986,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C86" t="s">
         <v>55</v>
@@ -3990,13 +3995,13 @@
         <v>54</v>
       </c>
       <c r="E86" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F86" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G86" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H86"/>
       <c r="I86"/>
@@ -4008,7 +4013,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C87" t="s">
         <v>55</v>
@@ -4017,52 +4022,47 @@
         <v>54</v>
       </c>
       <c r="E87" t="s">
-        <v>233</v>
+        <v>347</v>
       </c>
       <c r="F87" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G87" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H87"/>
       <c r="I87"/>
       <c r="J87"/>
       <c r="K87"/>
-      <c r="L87" t="s">
-        <v>286</v>
-      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C88" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D88" t="s">
         <v>54</v>
       </c>
+      <c r="E88" t="s">
+        <v>233</v>
+      </c>
       <c r="F88" t="s">
-        <v>182</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H88" s="4">
-        <v>0</v>
-      </c>
-      <c r="I88" s="4">
-        <v>0</v>
-      </c>
-      <c r="J88" s="4">
-        <v>0</v>
-      </c>
-      <c r="K88" s="4">
-        <v>0</v>
+        <v>340</v>
+      </c>
+      <c r="G88" t="s">
+        <v>346</v>
+      </c>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -4070,7 +4070,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C89" t="s">
         <v>48</v>
@@ -4078,26 +4078,31 @@
       <c r="D89" t="s">
         <v>54</v>
       </c>
-      <c r="E89" t="s">
-        <v>236</v>
-      </c>
       <c r="F89" t="s">
-        <v>41</v>
-      </c>
-      <c r="G89" t="s">
-        <v>355</v>
-      </c>
-      <c r="H89"/>
-      <c r="I89"/>
-      <c r="J89"/>
-      <c r="K89"/>
+        <v>182</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H89" s="4">
+        <v>0</v>
+      </c>
+      <c r="I89" s="4">
+        <v>0</v>
+      </c>
+      <c r="J89" s="4">
+        <v>0</v>
+      </c>
+      <c r="K89" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C90" t="s">
         <v>48</v>
@@ -4106,13 +4111,13 @@
         <v>54</v>
       </c>
       <c r="E90" t="s">
-        <v>356</v>
+        <v>236</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H90"/>
       <c r="I90"/>
@@ -4124,7 +4129,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C91" t="s">
         <v>48</v>
@@ -4133,13 +4138,13 @@
         <v>54</v>
       </c>
       <c r="E91" t="s">
-        <v>235</v>
+        <v>356</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G91" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H91"/>
       <c r="I91"/>
@@ -4151,7 +4156,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C92" t="s">
         <v>48</v>
@@ -4160,13 +4165,13 @@
         <v>54</v>
       </c>
       <c r="E92" t="s">
-        <v>356</v>
+        <v>235</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H92"/>
       <c r="I92"/>
@@ -4178,7 +4183,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C93" t="s">
         <v>48</v>
@@ -4186,56 +4191,56 @@
       <c r="D93" t="s">
         <v>54</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E93" t="s">
         <v>356</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H93"/>
       <c r="I93"/>
       <c r="J93"/>
       <c r="K93"/>
-      <c r="L93" t="s">
-        <v>286</v>
-      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C94" t="s">
         <v>48</v>
       </c>
       <c r="D94" t="s">
-        <v>53</v>
-      </c>
-      <c r="E94" t="s">
+        <v>54</v>
+      </c>
+      <c r="E94" s="5" t="s">
         <v>356</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="H94"/>
       <c r="I94"/>
       <c r="J94"/>
       <c r="K94"/>
+      <c r="L94" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C95" t="s">
         <v>48</v>
@@ -4247,10 +4252,10 @@
         <v>356</v>
       </c>
       <c r="F95" t="s">
-        <v>357</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H95"/>
       <c r="I95"/>
@@ -4262,7 +4267,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C96" t="s">
         <v>48</v>
@@ -4274,10 +4279,10 @@
         <v>356</v>
       </c>
       <c r="F96" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G96" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H96"/>
       <c r="I96"/>
@@ -4289,7 +4294,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C97" t="s">
         <v>48</v>
@@ -4301,10 +4306,10 @@
         <v>356</v>
       </c>
       <c r="F97" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G97" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H97"/>
       <c r="I97"/>
@@ -4316,7 +4321,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C98" t="s">
         <v>48</v>
@@ -4328,10 +4333,10 @@
         <v>356</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
+        <v>359</v>
       </c>
       <c r="G98" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H98"/>
       <c r="I98"/>
@@ -4343,7 +4348,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C99" t="s">
         <v>48</v>
@@ -4352,13 +4357,13 @@
         <v>53</v>
       </c>
       <c r="E99" t="s">
-        <v>239</v>
+        <v>356</v>
       </c>
       <c r="F99" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G99" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H99"/>
       <c r="I99"/>
@@ -4370,7 +4375,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C100" t="s">
         <v>48</v>
@@ -4379,13 +4384,13 @@
         <v>53</v>
       </c>
       <c r="E100" t="s">
-        <v>356</v>
+        <v>239</v>
       </c>
       <c r="F100" t="s">
-        <v>360</v>
+        <v>9</v>
       </c>
       <c r="G100" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H100"/>
       <c r="I100"/>
@@ -4397,7 +4402,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C101" t="s">
         <v>48</v>
@@ -4406,13 +4411,13 @@
         <v>53</v>
       </c>
       <c r="E101" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="F101" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G101" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H101"/>
       <c r="I101"/>
@@ -4424,22 +4429,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C102" t="s">
         <v>48</v>
       </c>
       <c r="D102" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E102" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
+        <v>361</v>
       </c>
       <c r="G102" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="H102"/>
       <c r="I102"/>
@@ -4451,7 +4456,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C103" t="s">
         <v>48</v>
@@ -4463,10 +4468,10 @@
         <v>381</v>
       </c>
       <c r="F103" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G103" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="H103"/>
       <c r="I103"/>
@@ -4478,7 +4483,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C104" t="s">
         <v>48</v>
@@ -4490,10 +4495,10 @@
         <v>381</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G104" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H104"/>
       <c r="I104"/>
@@ -4505,7 +4510,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C105" t="s">
         <v>48</v>
@@ -4514,13 +4519,13 @@
         <v>51</v>
       </c>
       <c r="E105" t="s">
-        <v>298</v>
+        <v>381</v>
       </c>
       <c r="F105" t="s">
-        <v>371</v>
+        <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H105"/>
       <c r="I105"/>
@@ -4532,7 +4537,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C106" t="s">
         <v>48</v>
@@ -4544,10 +4549,10 @@
         <v>298</v>
       </c>
       <c r="F106" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G106" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H106"/>
       <c r="I106"/>
@@ -4559,7 +4564,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C107" t="s">
         <v>48</v>
@@ -4568,13 +4573,13 @@
         <v>51</v>
       </c>
       <c r="E107" t="s">
-        <v>380</v>
+        <v>298</v>
       </c>
       <c r="F107" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G107" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H107"/>
       <c r="I107"/>
@@ -4586,39 +4591,34 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D108" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="E108" t="s">
+        <v>380</v>
       </c>
       <c r="F108" t="s">
-        <v>182</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H108" s="4">
-        <v>0</v>
-      </c>
-      <c r="I108" s="4">
-        <v>0</v>
-      </c>
-      <c r="J108" s="4">
-        <v>0</v>
-      </c>
-      <c r="K108" s="4">
-        <v>0</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="G108" t="s">
+        <v>378</v>
+      </c>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C109" t="s">
         <v>46</v>
@@ -4626,14 +4626,23 @@
       <c r="D109" t="s">
         <v>50</v>
       </c>
-      <c r="E109" t="s">
-        <v>236</v>
-      </c>
       <c r="F109" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+      <c r="H109" s="4">
+        <v>0</v>
+      </c>
+      <c r="I109" s="4">
+        <v>0</v>
+      </c>
+      <c r="J109" s="4">
+        <v>0</v>
+      </c>
+      <c r="K109" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -4641,7 +4650,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C110" t="s">
         <v>46</v>
@@ -4650,13 +4659,13 @@
         <v>50</v>
       </c>
       <c r="E110" t="s">
-        <v>382</v>
+        <v>236</v>
       </c>
       <c r="F110" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -4664,7 +4673,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C111" t="s">
         <v>46</v>
@@ -4673,13 +4682,13 @@
         <v>50</v>
       </c>
       <c r="E111" t="s">
-        <v>246</v>
+        <v>382</v>
       </c>
       <c r="F111" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -4687,7 +4696,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C112" t="s">
         <v>46</v>
@@ -4699,10 +4708,10 @@
         <v>246</v>
       </c>
       <c r="F112" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -4710,7 +4719,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C113" t="s">
         <v>46</v>
@@ -4719,20 +4728,47 @@
         <v>50</v>
       </c>
       <c r="E113" t="s">
+        <v>246</v>
+      </c>
+      <c r="F113" t="s">
+        <v>191</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>170</v>
+      </c>
+      <c r="C114" t="s">
+        <v>46</v>
+      </c>
+      <c r="D114" t="s">
+        <v>50</v>
+      </c>
+      <c r="E114" t="s">
         <v>233</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F114" t="s">
         <v>27</v>
       </c>
-      <c r="G113" s="4" t="s">
+      <c r="G114" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="L113" t="s">
+      <c r="L114" t="s">
         <v>286</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L113"/>
+  <autoFilter ref="A1:L114">
+    <sortState ref="A2:L113">
+      <sortCondition ref="A1:A113"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/crazys-wm-mod/Docs&Tools/Jobs.xlsx
+++ b/crazys-wm-mod/Docs&Tools/Jobs.xlsx
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="394">
   <si>
     <t>Job</t>
   </si>
@@ -1395,13 +1395,22 @@
   </si>
   <si>
     <t>JEWELER</t>
+  </si>
+  <si>
+    <t>MatronJob(-1000 for Slaves)</t>
+  </si>
+  <si>
+    <t>Mute girls = -1000</t>
+  </si>
+  <si>
+    <t>&lt;0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1444,13 +1453,25 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1462,10 +1483,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1484,8 +1506,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1787,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:A114"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1925,8 +1951,8 @@
       <c r="G4" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="H4" s="4">
-        <v>-112</v>
+      <c r="H4" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="I4" s="4">
         <v>270</v>
@@ -1961,8 +1987,8 @@
       <c r="G5" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="H5" s="4">
-        <v>-570</v>
+      <c r="H5" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="I5" s="4">
         <v>547</v>
@@ -1996,8 +2022,8 @@
       <c r="G6" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="H6" s="4">
-        <v>-490</v>
+      <c r="H6" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="I6" s="4">
         <v>456.6</v>
@@ -2031,6 +2057,18 @@
       <c r="G7" s="4" t="s">
         <v>199</v>
       </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>100</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2054,6 +2092,21 @@
       <c r="G8" s="4" t="s">
         <v>201</v>
       </c>
+      <c r="H8" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I8" s="4">
+        <v>210</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="K8" s="4">
+        <v>210</v>
+      </c>
+      <c r="L8" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2077,6 +2130,18 @@
       <c r="G9" s="4" t="s">
         <v>203</v>
       </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2100,6 +2165,18 @@
       <c r="G10" s="4" t="s">
         <v>204</v>
       </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>300</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>200</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2123,6 +2200,18 @@
       <c r="G11" s="4" t="s">
         <v>205</v>
       </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>200</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>200</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2146,6 +2235,18 @@
       <c r="G12" s="4" t="s">
         <v>206</v>
       </c>
+      <c r="H12" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I12" s="4">
+        <v>330</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>200</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2169,6 +2270,18 @@
       <c r="G13" s="4" t="s">
         <v>207</v>
       </c>
+      <c r="H13" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I13" s="4">
+        <v>355</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>200</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2192,6 +2305,21 @@
       <c r="G14" s="4" t="s">
         <v>208</v>
       </c>
+      <c r="H14" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I14" s="4">
+        <v>335</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>200</v>
+      </c>
+      <c r="L14" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2215,6 +2343,18 @@
       <c r="G15" s="4" t="s">
         <v>209</v>
       </c>
+      <c r="H15" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I15" s="4">
+        <v>325</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>200</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2238,6 +2378,18 @@
       <c r="G16" s="4" t="s">
         <v>210</v>
       </c>
+      <c r="H16" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I16" s="4">
+        <v>325</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>200</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -2261,10 +2413,18 @@
       <c r="G17" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
+      <c r="H17" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I17" s="4">
+        <v>250</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>200</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -2288,10 +2448,18 @@
       <c r="G18" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
+      <c r="H18" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I18" s="4">
+        <v>280</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>200</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -2315,10 +2483,18 @@
       <c r="G19" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
+      <c r="H19" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I19" s="4">
+        <v>290</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>200</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -2342,10 +2518,18 @@
       <c r="G20" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>200</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>200</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -2369,10 +2553,18 @@
       <c r="G21" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
+      <c r="H21" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I21" s="4">
+        <v>335</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>210</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -2396,10 +2588,18 @@
       <c r="G22" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
+      <c r="H22" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I22" s="4">
+        <v>335</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>200</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -2423,10 +2623,18 @@
       <c r="G23" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
+      <c r="H23" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I23" s="4">
+        <v>320</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>200</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -2450,10 +2658,18 @@
       <c r="G24" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>200</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>200</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -2477,10 +2693,18 @@
       <c r="G25" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
+      <c r="H25" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I25" s="4">
+        <v>290</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>200</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -2504,10 +2728,18 @@
       <c r="G26" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
+      <c r="H26" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I26" s="4">
+        <v>325</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>200</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -2531,10 +2763,18 @@
       <c r="G27" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
+      <c r="H27" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I27" s="4">
+        <v>310</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>200</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -2558,10 +2798,18 @@
       <c r="G28" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>200</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>200</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -2585,10 +2833,18 @@
       <c r="G29" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>200</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>200</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -4780,7 +5036,7 @@
   <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4800,138 +5056,73 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6">
-        <v>-5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>-20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>-5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>-30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>-40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>-20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>-20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>-50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <f>SUM(A1:A26)</f>
-        <v>-490</v>
+        <f>SUM(A1:A13)</f>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.25">
